--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1061463333333333</v>
+        <v>0.08632499999999999</v>
       </c>
       <c r="H2">
-        <v>0.318439</v>
+        <v>0.258975</v>
       </c>
       <c r="I2">
-        <v>0.08164208687920579</v>
+        <v>0.04465318711422561</v>
       </c>
       <c r="J2">
-        <v>0.08164208687920578</v>
+        <v>0.0446531871142256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N2">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O2">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P2">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q2">
-        <v>0.008077735966666666</v>
+        <v>0.02807927805</v>
       </c>
       <c r="R2">
-        <v>0.07269962369999999</v>
+        <v>0.25271350245</v>
       </c>
       <c r="S2">
-        <v>0.0248734413931595</v>
+        <v>0.02094215274466737</v>
       </c>
       <c r="T2">
-        <v>0.0248734413931595</v>
+        <v>0.02094215274466737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1061463333333333</v>
+        <v>0.08632499999999999</v>
       </c>
       <c r="H3">
-        <v>0.318439</v>
+        <v>0.258975</v>
       </c>
       <c r="I3">
-        <v>0.08164208687920579</v>
+        <v>0.04465318711422561</v>
       </c>
       <c r="J3">
-        <v>0.08164208687920578</v>
+        <v>0.0446531871142256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N3">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O3">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P3">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q3">
-        <v>0.01843581361233333</v>
+        <v>0.03179179977499999</v>
       </c>
       <c r="R3">
-        <v>0.165922322511</v>
+        <v>0.2861261979749999</v>
       </c>
       <c r="S3">
-        <v>0.05676864548604629</v>
+        <v>0.02371103436955822</v>
       </c>
       <c r="T3">
-        <v>0.05676864548604627</v>
+        <v>0.02371103436955823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>1.243635</v>
       </c>
       <c r="I4">
-        <v>0.3188458596968999</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="J4">
-        <v>0.3188458596968999</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N4">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O4">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P4">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q4">
-        <v>0.0315468745</v>
+        <v>0.13484071033</v>
       </c>
       <c r="R4">
-        <v>0.2839218705</v>
+        <v>1.21356639297</v>
       </c>
       <c r="S4">
-        <v>0.09714099807806809</v>
+        <v>0.1005672135480815</v>
       </c>
       <c r="T4">
-        <v>0.09714099807806809</v>
+        <v>0.1005672135480815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.243635</v>
       </c>
       <c r="I5">
-        <v>0.3188458596968999</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="J5">
-        <v>0.3188458596968999</v>
+        <v>0.2144309927861761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N5">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O5">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P5">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q5">
-        <v>0.071999419235</v>
+        <v>0.1526687707816667</v>
       </c>
       <c r="R5">
-        <v>0.647994773115</v>
+        <v>1.374018937035</v>
       </c>
       <c r="S5">
-        <v>0.2217048616188318</v>
+        <v>0.1138637792380946</v>
       </c>
       <c r="T5">
-        <v>0.2217048616188318</v>
+        <v>0.1138637792380946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6332836666666667</v>
+        <v>1.275124666666666</v>
       </c>
       <c r="H6">
-        <v>1.899851</v>
+        <v>3.825374</v>
       </c>
       <c r="I6">
-        <v>0.4870879521652373</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="J6">
-        <v>0.4870879521652373</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N6">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O6">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P6">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q6">
-        <v>0.04819288703333333</v>
+        <v>0.4147649008253333</v>
       </c>
       <c r="R6">
-        <v>0.4337359833</v>
+        <v>3.732884107428</v>
       </c>
       <c r="S6">
-        <v>0.1483983824350519</v>
+        <v>0.3093409271685653</v>
       </c>
       <c r="T6">
-        <v>0.1483983824350519</v>
+        <v>0.3093409271685654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6332836666666667</v>
+        <v>1.275124666666666</v>
       </c>
       <c r="H7">
-        <v>1.899851</v>
+        <v>3.825374</v>
       </c>
       <c r="I7">
-        <v>0.4870879521652373</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="J7">
-        <v>0.4870879521652373</v>
+        <v>0.6595815851101212</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N7">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O7">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P7">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q7">
-        <v>0.1099906070776667</v>
+        <v>0.4696033372815555</v>
       </c>
       <c r="R7">
-        <v>0.989915463699</v>
+        <v>4.226430035533999</v>
       </c>
       <c r="S7">
-        <v>0.3386895697301854</v>
+        <v>0.3502406579415558</v>
       </c>
       <c r="T7">
-        <v>0.3386895697301854</v>
+        <v>0.3502406579415559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1461673333333333</v>
+        <v>0.157238</v>
       </c>
       <c r="H8">
-        <v>0.438502</v>
+        <v>0.471714</v>
       </c>
       <c r="I8">
-        <v>0.1124241012586571</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="J8">
-        <v>0.1124241012586571</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.0761</v>
+        <v>0.325274</v>
       </c>
       <c r="N8">
-        <v>0.2283</v>
+        <v>0.975822</v>
       </c>
       <c r="O8">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283401</v>
       </c>
       <c r="P8">
-        <v>0.3046644487415076</v>
+        <v>0.4689956999283402</v>
       </c>
       <c r="Q8">
-        <v>0.01112333406666667</v>
+        <v>0.051145433212</v>
       </c>
       <c r="R8">
-        <v>0.1001100066</v>
+        <v>0.460308898908</v>
       </c>
       <c r="S8">
-        <v>0.03425162683522819</v>
+        <v>0.03814540646702588</v>
       </c>
       <c r="T8">
-        <v>0.03425162683522819</v>
+        <v>0.03814540646702588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1461673333333333</v>
+        <v>0.157238</v>
       </c>
       <c r="H9">
-        <v>0.438502</v>
+        <v>0.471714</v>
       </c>
       <c r="I9">
-        <v>0.1124241012586571</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="J9">
-        <v>0.1124241012586571</v>
+        <v>0.08133423498947705</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173683</v>
+        <v>0.3682803333333333</v>
       </c>
       <c r="N9">
-        <v>0.521049</v>
+        <v>1.104841</v>
       </c>
       <c r="O9">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716598</v>
       </c>
       <c r="P9">
-        <v>0.6953355512584923</v>
+        <v>0.5310043000716599</v>
       </c>
       <c r="Q9">
-        <v>0.02538678095533333</v>
+        <v>0.05790766305266666</v>
       </c>
       <c r="R9">
-        <v>0.228481028598</v>
+        <v>0.521168967474</v>
       </c>
       <c r="S9">
-        <v>0.07817247442342888</v>
+        <v>0.04318882852245116</v>
       </c>
       <c r="T9">
-        <v>0.07817247442342887</v>
+        <v>0.04318882852245117</v>
       </c>
     </row>
   </sheetData>
